--- a/src/tk_dn1_63190277/Belezke.xlsx
+++ b/src/tk_dn1_63190277/Belezke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\TK\src\tk_dn1_63190277\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADBC44B-1D0B-4F13-A42D-14C8C7A8C8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46E5913-B33B-4BAC-B17C-D35309A76831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2EBF3EAA-E479-4901-BD4B-FC95096E004B}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -383,7 +383,7 @@
   <rv s="0">
     <v>0</v>
     <v>8</v>
-    <v>1</v>
+    <v>2</v>
     <v>5</v>
   </rv>
   <rv s="1">
@@ -462,8 +462,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E25FD3EA-4233-4225-AC21-0FAFF61DE916}" name="Tabela2" displayName="Tabela2" ref="A1:K3" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:K3" xr:uid="{E25FD3EA-4233-4225-AC21-0FAFF61DE916}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E25FD3EA-4233-4225-AC21-0FAFF61DE916}" name="Tabela2" displayName="Tabela2" ref="A1:K4" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:K4" xr:uid="{E25FD3EA-4233-4225-AC21-0FAFF61DE916}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6F33A7BB-6D56-4319-9C17-36B417C75F66}" name="ID"/>
     <tableColumn id="2" xr3:uid="{51D35727-ACE4-41C5-A92E-613241A72508}" name="Opravilo"/>
@@ -484,8 +484,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{289923E5-C8DB-4D41-A8F2-3F18C56B7C5A}" name="Tabela5" displayName="Tabela5" ref="A1:K3" totalsRowShown="0">
-  <autoFilter ref="A1:K3" xr:uid="{289923E5-C8DB-4D41-A8F2-3F18C56B7C5A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{289923E5-C8DB-4D41-A8F2-3F18C56B7C5A}" name="Tabela5" displayName="Tabela5" ref="A1:K4" totalsRowShown="0">
+  <autoFilter ref="A1:K4" xr:uid="{289923E5-C8DB-4D41-A8F2-3F18C56B7C5A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{24BA900E-2054-4A20-AE15-4C15867E4D74}" name="ID"/>
     <tableColumn id="2" xr3:uid="{446A6F87-BFB7-46FB-B479-8817977CC696}" name="Opravilo"/>
@@ -805,7 +805,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,9 +1301,27 @@
       <c r="D14">
         <v>7</v>
       </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
       <c r="K14">
         <f>SUM(Tabela1[[#This Row],[Planiranje]:[Analiza]])</f>
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1320,11 +1338,11 @@
       </c>
       <c r="E15">
         <f>SUBTOTAL(109,Tabela1[Testi])</f>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F15">
         <f>SUBTOTAL(109,Tabela1[Programiranje])</f>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G15">
         <f>SUBTOTAL(109,Tabela1[Pregled])</f>
@@ -1336,7 +1354,7 @@
       </c>
       <c r="I15">
         <f>SUBTOTAL(109,Tabela1[Testiranje])</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <f>SUBTOTAL(109,Tabela1[Analiza])</f>
@@ -1344,7 +1362,7 @@
       </c>
       <c r="K15">
         <f>SUBTOTAL(109,Tabela1[Skupaj])</f>
-        <v>229</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -1360,7 +1378,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,29 +1888,35 @@
       <c r="B14" t="s">
         <v>33</v>
       </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
       <c r="E14" s="6">
         <f>SUM(Tabela3[[#This Row],[LOC_Testi]:[LOC_Program]])</f>
-        <v>0</v>
-      </c>
-      <c r="F14" t="e">
+        <v>92</v>
+      </c>
+      <c r="F14">
         <f>SUMIF(Tabela1[ID],Tabela3[[#This Row],[ID]],Tabela1[Skupaj])/Tabela3[[#This Row],[LOC]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" t="e">
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="G14">
         <f>60/Tabela3[[#This Row],[Min/LOC]]</f>
-        <v>#DIV/0!</v>
+        <v>106.15384615384616</v>
       </c>
       <c r="H14" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="H14" ca="1">1000*(Tabela2[Skupaj]/Tabela3[[#This Row],[LOC]])</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I14" t="e">
+      <c r="I14">
         <f>100*SUM(SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Planiranje]),SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Načrtovanje]),SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Testi]),SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Programiranje]),SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Pregled]),)/SUM(SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Planiranje]),SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Načrtovanje]),SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Testi]),SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Programiranje]), SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Pregled]))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" t="e">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <f>SUMIF(Tabela1[ID],Tabela3[[#This Row],[ID]],Tabela1[Pregled])/(SUMIF(Tabela1[ID],Tabela3[[#This Row],[ID]],Tabela1[Prevajanje])+SUMIF(Tabela1[ID],Tabela3[[#This Row],[ID]],Tabela1[Testiranje]))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1901,23 +1925,23 @@
       </c>
       <c r="C15">
         <f>SUBTOTAL(109,Tabela3[LOC_Testi])</f>
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="D15">
         <f>SUBTOTAL(109,Tabela3[LOC_Program])</f>
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="E15">
         <f>SUBTOTAL(109,Tabela3[LOC])</f>
-        <v>516</v>
-      </c>
-      <c r="F15" t="e">
+        <v>608</v>
+      </c>
+      <c r="F15">
         <f>SUBTOTAL(101,Tabela3[Min/LOC])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" t="e">
+        <v>0.44387385902000875</v>
+      </c>
+      <c r="G15">
         <f>SUBTOTAL(101,Tabela3[LOC/Uro])</f>
-        <v>#DIV/0!</v>
+        <v>393.68347738619366</v>
       </c>
       <c r="H15" t="e" vm="2">
         <f ca="1">SUBTOTAL(101,Tabela3[napake/KLOC])</f>
@@ -1942,9 +1966,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1340E9-BA89-4E22-A618-FED12E15F5E2}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2065,6 +2091,42 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>SUM(Tabela2[[#This Row],[Planiranje]:[Analiza]])</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2075,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A374FAC9-BDF0-4E90-9F43-90EA2ED21369}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,6 +2218,9 @@
       <c r="I2">
         <v>3</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
       <c r="K2">
         <f>SUM(Tabela5[[#This Row],[Planiranje]:[Analiza]])</f>
         <v>4</v>
@@ -2168,15 +2233,69 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="G3">
         <v>3</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3">
         <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3">
         <f>SUM(Tabela5[[#This Row],[Planiranje]:[Analiza]])</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>SUM(Tabela5[[#This Row],[Planiranje]:[Analiza]])</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/tk_dn1_63190277/Belezke.xlsx
+++ b/src/tk_dn1_63190277/Belezke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\TK\src\tk_dn1_63190277\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\faks\programiranje\TK\src\tk_dn1_63190277\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46E5913-B33B-4BAC-B17C-D35309A76831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E9EF8B-E51E-4B48-8FCC-C9E8FBA12371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2EBF3EAA-E479-4901-BD4B-FC95096E004B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2EBF3EAA-E479-4901-BD4B-FC95096E004B}"/>
   </bookViews>
   <sheets>
     <sheet name="Poraba časa" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Odpravljene napake" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -86,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -188,13 +186,43 @@
   </si>
   <si>
     <t>Metoda remove</t>
+  </si>
+  <si>
+    <t>Pregled in dodajanje testov</t>
+  </si>
+  <si>
+    <t>Pregled in dodajanje testov/v metodi remove</t>
+  </si>
+  <si>
+    <t>min/loc</t>
+  </si>
+  <si>
+    <t>loc/uro</t>
+  </si>
+  <si>
+    <t>nap/kloc</t>
+  </si>
+  <si>
+    <t>del. Od. Nap.</t>
+  </si>
+  <si>
+    <t>razmerje I/O</t>
+  </si>
+  <si>
+    <t>dej</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>skupaj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +234,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -280,7 +314,29 @@
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -326,7 +382,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{8BF3AA92-35A0-424D-9C59-8562B28CD450}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -339,7 +400,7 @@
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <global>
     <keyFlags>
       <key name="_Self">
@@ -383,7 +444,7 @@
   <rv s="0">
     <v>0</v>
     <v>8</v>
-    <v>2</v>
+    <v>3</v>
     <v>5</v>
   </rv>
   <rv s="1">
@@ -409,8 +470,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02CC80E-058F-4EC4-A7E1-0B8B795C9854}" name="Tabela1" displayName="Tabela1" ref="A1:K15" totalsRowCount="1">
-  <autoFilter ref="A1:K14" xr:uid="{A02CC80E-058F-4EC4-A7E1-0B8B795C9854}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02CC80E-058F-4EC4-A7E1-0B8B795C9854}" name="Tabela1" displayName="Tabela1" ref="A1:K16" totalsRowCount="1">
+  <autoFilter ref="A1:K15" xr:uid="{A02CC80E-058F-4EC4-A7E1-0B8B795C9854}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A8864C5F-FEB4-453C-963C-B28671126C7C}" name="ID" totalsRowLabel="Vsota"/>
     <tableColumn id="2" xr3:uid="{4D2EA7F0-A70E-498F-945D-EF4EAF60E0FD}" name="Opravilo"/>
@@ -431,14 +492,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7439EBD8-A06C-4A2F-AEC3-E101C4B97AA0}" name="Tabela3" displayName="Tabela3" ref="A1:J15" totalsRowCount="1">
-  <autoFilter ref="A1:J14" xr:uid="{7439EBD8-A06C-4A2F-AEC3-E101C4B97AA0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7439EBD8-A06C-4A2F-AEC3-E101C4B97AA0}" name="Tabela3" displayName="Tabela3" ref="A1:J16" totalsRowCount="1">
+  <autoFilter ref="A1:J15" xr:uid="{7439EBD8-A06C-4A2F-AEC3-E101C4B97AA0}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{A583E26C-D424-43E8-B5AC-B74D11E5B674}" name="ID" totalsRowLabel="Vsota"/>
     <tableColumn id="2" xr3:uid="{CE9E2E39-3909-4ADC-91DC-33694F3C5795}" name="Opravilo"/>
     <tableColumn id="10" xr3:uid="{023FBFC7-EDC5-4F04-9A2B-EB7BB68CAA80}" name="LOC_Testi" totalsRowFunction="sum"/>
     <tableColumn id="9" xr3:uid="{09B45C85-58D3-49B5-AA93-DFFD11CDFA44}" name="LOC_Program" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{F0617B90-DBD2-4D5C-91C1-E75944EF4287}" name="LOC" totalsRowFunction="sum" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{F0617B90-DBD2-4D5C-91C1-E75944EF4287}" name="LOC" totalsRowFunction="sum" dataDxfId="6">
       <calculatedColumnFormula>SUM(Tabela3[[#This Row],[LOC_Testi]:[LOC_Program]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{D6927D73-CBC8-47E9-BD56-D3EF2B2799CF}" name="Min/LOC" totalsRowFunction="average">
@@ -450,7 +511,7 @@
     <tableColumn id="6" xr3:uid="{FB44A332-6C12-44BE-973B-25E5444E34D0}" name="napake/KLOC" totalsRowFunction="average">
       <calculatedColumnFormula array="1">1000*(Tabela2[Skupaj]/Tabela3[[#This Row],[LOC]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B64FC89B-0F74-4D88-A11B-51BB57236FBC}" name="Delež odpravljenih napak" totalsRowFunction="average" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{B64FC89B-0F74-4D88-A11B-51BB57236FBC}" name="Delež odpravljenih napak" totalsRowFunction="average" dataDxfId="5">
       <calculatedColumnFormula>100*SUM(SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Planiranje]),SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Načrtovanje]),SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Testi]),SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Programiranje]),SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Pregled]),)/SUM(SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Planiranje]),SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Načrtovanje]),SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Testi]),SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Programiranje]), SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Pregled]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{223E0760-FF21-466A-A2E8-A87A03650402}" name="Razmerje I/O" totalsRowFunction="average">
@@ -462,20 +523,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E25FD3EA-4233-4225-AC21-0FAFF61DE916}" name="Tabela2" displayName="Tabela2" ref="A1:K4" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:K4" xr:uid="{E25FD3EA-4233-4225-AC21-0FAFF61DE916}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E25FD3EA-4233-4225-AC21-0FAFF61DE916}" name="Tabela2" displayName="Tabela2" ref="A1:K6" totalsRowCount="1" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:K5" xr:uid="{E25FD3EA-4233-4225-AC21-0FAFF61DE916}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6F33A7BB-6D56-4319-9C17-36B417C75F66}" name="ID"/>
+    <tableColumn id="1" xr3:uid="{6F33A7BB-6D56-4319-9C17-36B417C75F66}" name="ID" totalsRowLabel="Vsota"/>
     <tableColumn id="2" xr3:uid="{51D35727-ACE4-41C5-A92E-613241A72508}" name="Opravilo"/>
     <tableColumn id="3" xr3:uid="{45CF2A95-E173-4FB3-9366-BAA0330B29A6}" name="Planiranje"/>
     <tableColumn id="4" xr3:uid="{FEEDD24B-56E4-4E47-B708-D7B959FC751E}" name="Načrtovanje"/>
     <tableColumn id="5" xr3:uid="{C6A0741D-D0EF-4D9E-AA19-4CA761B5B517}" name="Testi"/>
-    <tableColumn id="6" xr3:uid="{540BB8EF-A1F5-4399-9171-4835A2D73B6B}" name="Programiranje"/>
+    <tableColumn id="6" xr3:uid="{540BB8EF-A1F5-4399-9171-4835A2D73B6B}" name="Programiranje" totalsRowFunction="sum"/>
     <tableColumn id="7" xr3:uid="{39AF45EC-D9C5-451C-BD84-67A872C8A95E}" name="Pregled"/>
     <tableColumn id="8" xr3:uid="{0308F2C1-AA3A-41A2-B5A8-2E95AFECE3EF}" name="Prevajanje"/>
     <tableColumn id="9" xr3:uid="{ECB04B1B-9637-4244-8F18-FBB87E17EEBB}" name="Testiranje"/>
     <tableColumn id="10" xr3:uid="{BAC09DBD-DB84-42E5-8D66-C69477B94250}" name="Analiza"/>
-    <tableColumn id="11" xr3:uid="{AC939416-5B78-4A98-9502-DBCC88CCDC72}" name="Skupaj">
+    <tableColumn id="11" xr3:uid="{AC939416-5B78-4A98-9502-DBCC88CCDC72}" name="Skupaj" totalsRowFunction="sum">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Planiranje]:[Analiza]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -484,20 +545,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{289923E5-C8DB-4D41-A8F2-3F18C56B7C5A}" name="Tabela5" displayName="Tabela5" ref="A1:K4" totalsRowShown="0">
-  <autoFilter ref="A1:K4" xr:uid="{289923E5-C8DB-4D41-A8F2-3F18C56B7C5A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{289923E5-C8DB-4D41-A8F2-3F18C56B7C5A}" name="Tabela5" displayName="Tabela5" ref="A1:K6" totalsRowCount="1">
+  <autoFilter ref="A1:K5" xr:uid="{289923E5-C8DB-4D41-A8F2-3F18C56B7C5A}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{24BA900E-2054-4A20-AE15-4C15867E4D74}" name="ID"/>
+    <tableColumn id="1" xr3:uid="{24BA900E-2054-4A20-AE15-4C15867E4D74}" name="ID" totalsRowLabel="Vsota"/>
     <tableColumn id="2" xr3:uid="{446A6F87-BFB7-46FB-B479-8817977CC696}" name="Opravilo"/>
     <tableColumn id="3" xr3:uid="{F5890AAE-CC55-4DD8-AEC8-7C6F3308119A}" name="Planiranje"/>
     <tableColumn id="4" xr3:uid="{07240B14-7600-4615-AE27-36731DB69B26}" name="Načrtovanje"/>
     <tableColumn id="5" xr3:uid="{3CD11977-8345-4A75-8AF8-6AC10D05D31B}" name="Testi"/>
     <tableColumn id="6" xr3:uid="{6A270CAE-FA83-4798-9917-3F892D876B39}" name="Programiranje"/>
-    <tableColumn id="7" xr3:uid="{22CB8252-CAA0-4435-A521-DDC18CFFBB18}" name="Pregled"/>
+    <tableColumn id="7" xr3:uid="{22CB8252-CAA0-4435-A521-DDC18CFFBB18}" name="Pregled" totalsRowFunction="sum"/>
     <tableColumn id="8" xr3:uid="{ECC3517D-8562-46CE-96AF-070BE9E22F22}" name="Prevajanje"/>
-    <tableColumn id="9" xr3:uid="{CDDFD8EF-7AF8-4F2F-8CF5-55A18CAA688A}" name="Testiranje"/>
-    <tableColumn id="10" xr3:uid="{C1A7CF5C-0D70-49B1-8421-B68BADC89E79}" name="Analiza"/>
-    <tableColumn id="11" xr3:uid="{6C141E64-B4BE-428B-BA05-BF83371F4C97}" name="Skupaj">
+    <tableColumn id="9" xr3:uid="{CDDFD8EF-7AF8-4F2F-8CF5-55A18CAA688A}" name="Testiranje" totalsRowFunction="sum"/>
+    <tableColumn id="10" xr3:uid="{C1A7CF5C-0D70-49B1-8421-B68BADC89E79}" name="Analiza" totalsRowFunction="sum"/>
+    <tableColumn id="11" xr3:uid="{6C141E64-B4BE-428B-BA05-BF83371F4C97}" name="Skupaj" totalsRowFunction="sum">
       <calculatedColumnFormula>SUM(Tabela5[[#This Row],[Planiranje]:[Analiza]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -802,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCAD0AD-5B82-4C74-A3B2-E92AEA86B03D}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +882,7 @@
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,8 +916,17 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -891,8 +961,22 @@
         <f>SUM(Tabela1[[#This Row],[Planiranje]:[Analiza]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2">
+        <f>Tabela1[[#Totals],[Skupaj]]/(376+250)</f>
+        <v>0.54313099041533541</v>
+      </c>
+      <c r="Q2">
+        <v>3.0375899999999998</v>
+      </c>
+      <c r="R2">
+        <f>Q2*10+P2</f>
+        <v>30.919030990415333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -927,8 +1011,22 @@
         <f>SUM(Tabela1[[#This Row],[Planiranje]:[Analiza]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3">
+        <f>60/P2</f>
+        <v>110.47058823529413</v>
+      </c>
+      <c r="Q3">
+        <v>19.752500000000001</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R6" si="0">Q3*10+P3</f>
+        <v>307.99558823529412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -963,8 +1061,22 @@
         <f>SUM(Tabela1[[#This Row],[Planiranje]:[Analiza]])</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4">
+        <f>1000*(10/(376+250))</f>
+        <v>15.974440894568689</v>
+      </c>
+      <c r="Q4">
+        <v>82.706770000000006</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>843.04214089456877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -999,8 +1111,22 @@
         <f>SUM(Tabela1[[#This Row],[Planiranje]:[Analiza]])</f>
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5">
+        <f>100*4/10</f>
+        <v>40</v>
+      </c>
+      <c r="Q5">
+        <v>22.72</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>267.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1035,8 +1161,22 @@
         <f>SUM(Tabela1[[#This Row],[Planiranje]:[Analiza]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6">
+        <f>24/(0+43)</f>
+        <v>0.55813953488372092</v>
+      </c>
+      <c r="Q6">
+        <v>0.10231999999999999</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>1.5813395348837207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1072,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1108,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1144,7 +1284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1180,7 +1320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1216,7 +1356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1252,7 +1392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1288,7 +1428,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1324,61 +1464,99 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <f>SUM(Tabela1[[#This Row],[Planiranje]:[Analiza]])</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f>SUBTOTAL(109,Tabela1[Planiranje])</f>
         <v>25</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f>SUBTOTAL(109,Tabela1[Načrtovanje])</f>
         <v>36</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <f>SUBTOTAL(109,Tabela1[Testi])</f>
-        <v>45</v>
-      </c>
-      <c r="F15">
+        <v>65</v>
+      </c>
+      <c r="F16">
         <f>SUBTOTAL(109,Tabela1[Programiranje])</f>
         <v>88</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <f>SUBTOTAL(109,Tabela1[Pregled])</f>
-        <v>22</v>
-      </c>
-      <c r="H15">
+        <v>24</v>
+      </c>
+      <c r="H16">
         <f>SUBTOTAL(109,Tabela1[Prevajanje])</f>
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <f>SUBTOTAL(109,Tabela1[Testiranje])</f>
-        <v>49</v>
-      </c>
-      <c r="J15">
+        <v>59</v>
+      </c>
+      <c r="J16">
         <f>SUBTOTAL(109,Tabela1[Analiza])</f>
-        <v>3</v>
-      </c>
-      <c r="K15">
+        <v>43</v>
+      </c>
+      <c r="K16">
         <f>SUBTOTAL(109,Tabela1[Skupaj])</f>
-        <v>268</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7210E67-7137-42BD-AB48-D44A02DFECF6}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,38 +2098,76 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <f>SUM(Tabela3[[#This Row],[LOC_Testi]:[LOC_Program]])</f>
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <f>SUMIF(Tabela1[ID],Tabela3[[#This Row],[ID]],Tabela1[Skupaj])/Tabela3[[#This Row],[LOC]]</f>
+        <v>10.285714285714286</v>
+      </c>
+      <c r="G15">
+        <f>60/Tabela3[[#This Row],[Min/LOC]]</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="H15" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="H15" ca="1">1000*(Tabela2[Skupaj]/Tabela3[[#This Row],[LOC]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15">
+        <f>100*SUM(SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Planiranje]),SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Načrtovanje]),SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Testi]),SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Programiranje]),SUMIF(Tabela5[ID],Tabela3[[#This Row],[ID]],Tabela5[Pregled]),)/SUM(SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Planiranje]),SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Načrtovanje]),SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Testi]),SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Programiranje]), SUMIF(Tabela2[ID],Tabela3[[#This Row],[ID]],Tabela2[Pregled]))</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>SUMIF(Tabela1[ID],Tabela3[[#This Row],[ID]],Tabela1[Pregled])/(SUMIF(Tabela1[ID],Tabela3[[#This Row],[ID]],Tabela1[Prevajanje])+SUMIF(Tabela1[ID],Tabela3[[#This Row],[ID]],Tabela1[Testiranje]))</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f>SUBTOTAL(109,Tabela3[LOC_Testi])</f>
-        <v>342</v>
-      </c>
-      <c r="D15">
+        <v>349</v>
+      </c>
+      <c r="D16">
         <f>SUBTOTAL(109,Tabela3[LOC_Program])</f>
         <v>266</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <f>SUBTOTAL(109,Tabela3[LOC])</f>
-        <v>608</v>
-      </c>
-      <c r="F15">
+        <v>615</v>
+      </c>
+      <c r="F16">
         <f>SUBTOTAL(101,Tabela3[Min/LOC])</f>
-        <v>0.44387385902000875</v>
-      </c>
-      <c r="G15">
+        <v>1.1468624609267428</v>
+      </c>
+      <c r="G16">
         <f>SUBTOTAL(101,Tabela3[LOC/Uro])</f>
-        <v>393.68347738619366</v>
-      </c>
-      <c r="H15" t="e" vm="2">
+        <v>365.97989566813214</v>
+      </c>
+      <c r="H16" t="e" vm="2">
         <f ca="1">SUBTOTAL(101,Tabela3[napake/KLOC])</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I15" t="e">
+      <c r="I16" t="e">
         <f>SUBTOTAL(101,Tabela3[Delež odpravljenih napak])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" t="e">
+      <c r="J16" t="e">
         <f>SUBTOTAL(101,Tabela3[Razmerje I/O])</f>
         <v>#DIV/0!</v>
       </c>
@@ -1966,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1340E9-BA89-4E22-A618-FED12E15F5E2}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B4"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,6 +2343,55 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>SUM(Tabela2[[#This Row],[Planiranje]:[Analiza]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <f>SUBTOTAL(109,Tabela2[Programiranje])</f>
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <f>SUBTOTAL(109,Tabela2[Skupaj])</f>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2137,10 +2402,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A374FAC9-BDF0-4E90-9F43-90EA2ED21369}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,6 +2563,63 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f>SUM(Tabela5[[#This Row],[Planiranje]:[Analiza]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <f>SUBTOTAL(109,Tabela5[Pregled])</f>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f>SUBTOTAL(109,Tabela5[Testiranje])</f>
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <f>SUBTOTAL(109,Tabela5[Analiza])</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>SUBTOTAL(109,Tabela5[Skupaj])</f>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
